--- a/atomica/library/udt_dyn_databook.xlsx
+++ b/atomica/library/udt_dyn_databook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\databooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5FDF4-1E98-4AF3-AA00-48C77BB90363}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5244C7-1571-4B75-BC0D-4B379DEE1D25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,10 +76,10 @@
     <t>Birth rate</t>
   </si>
   <si>
+    <t>Untreated death rate</t>
+  </si>
+  <si>
     <t>Probability</t>
-  </si>
-  <si>
-    <t>Untreated death rate</t>
   </si>
   <si>
     <t>Treated death rate</t>
@@ -814,7 +814,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>
@@ -999,7 +999,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -1024,7 +1024,7 @@
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>0.4</v>
@@ -1063,7 +1063,7 @@
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>0.2</v>
@@ -1135,7 +1135,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5 B11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2 B8 B5 B11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"number"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/udt_dyn_databook.xlsx
+++ b/atomica/library/udt_dyn_databook.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5244C7-1571-4B75-BC0D-4B379DEE1D25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089C7A01-517F-6649-8057-22930C4EF892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5680" yWindow="1660" windowWidth="22300" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Stocks" sheetId="2" r:id="rId2"/>
     <sheet name="Flows" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -79,10 +85,10 @@
     <t>Untreated death rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Treated death rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
   </si>
 </sst>
 </file>
@@ -165,6 +171,78 @@
   <dxfs count="20">
     <dxf>
       <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
@@ -175,78 +253,6 @@
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -299,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -339,9 +345,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -374,26 +380,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,26 +415,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,12 +598,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -663,15 +635,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,7 +664,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -710,7 +682,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -731,7 +703,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -749,7 +721,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -770,7 +742,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -829,19 +801,19 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -862,7 +834,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -880,7 +852,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -901,7 +873,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -919,7 +891,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -940,7 +912,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -958,7 +930,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -979,7 +951,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
@@ -997,7 +969,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,13 +990,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>0.4</v>
@@ -1036,9 +1008,9 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -1057,13 +1029,13 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>adults</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>0.2</v>
@@ -1076,62 +1048,62 @@
       <c r="G17" s="2"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="expression" dxfId="13" priority="2">
+      <formula>AND(XFD13&lt;&gt;"",NOT(A13&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>AND(XFD16&lt;&gt;"",NOT(A16&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>AND(COUNTIF(E2:G2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>AND(COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>AND(COUNTIF(E5:G5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="7" priority="16">
+      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>AND(COUNTIF(E8:G8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>AND(COUNTIF(E11:G11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>AND(COUNTIF(E14:G14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>AND(COUNTIF(E17:G17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>AND(XFD13&lt;&gt;"",NOT(A13&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(XFD16&lt;&gt;"",NOT(A16&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
